--- a/DATA_FILES/Z_NEWFILE.xlsx
+++ b/DATA_FILES/Z_NEWFILE.xlsx
@@ -115,7 +115,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="top"/>
@@ -149,6 +149,21 @@
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="right" vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -553,7 +568,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.5" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.5"/>
   <cols>
     <col width="120" customWidth="1" min="1" max="1"/>
     <col width="3" customWidth="1" min="2" max="2"/>
@@ -561,23 +576,23 @@
   </cols>
   <sheetData>
     <row r="1" ht="100" customHeight="1">
-      <c r="A1" s="8" t="inlineStr">
+      <c r="A1" s="12" t="inlineStr">
         <is>
-          <t>CELL A1 PLACED AT VERTICAL TOP</t>
+          <t>CELL A1:  BOLD &amp; ITALIC</t>
         </is>
       </c>
     </row>
     <row r="2" ht="100" customHeight="1">
-      <c r="A2" s="10" t="inlineStr">
+      <c r="A2" s="15" t="inlineStr">
         <is>
-          <t>CELL A2 PLACED AT VERTICAL CENTER</t>
+          <t>CELL A2:  BOLD</t>
         </is>
       </c>
     </row>
     <row r="3" ht="100" customHeight="1">
-      <c r="A3" s="11" t="inlineStr">
+      <c r="A3" s="16" t="inlineStr">
         <is>
-          <t>CELL A3 PLACED AT VERTICAL BOTTOM</t>
+          <t>CELL A3:  ITALIC</t>
         </is>
       </c>
     </row>
